--- a/Table/H 活动周期表.xlsx
+++ b/Table/H 活动周期表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33367461-45C2-4AFB-9F6D-9110A9F3837F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63BEF47-ED10-450B-B34F-01896FA6B829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>活动ID</t>
   </si>
@@ -265,6 +265,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2019,9,22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,6 +285,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,6;1,7;2,6;2,7;3,6;3,7;4,6;4,7;5,6;5,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2,4;4,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -454,10 +462,6 @@
   </si>
   <si>
     <t>1,5;2,4;3,5;4,4;5,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,6;2,6;3,6;4,6;5,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1051,7 +1055,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1112,19 +1116,19 @@
         <v>100</v>
       </c>
       <c r="E2" s="6">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6">
         <v>1</v>
       </c>
+      <c r="F2" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="6">
         <v>14</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1132,16 +1136,16 @@
         <v>2001</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="6">
         <v>200</v>
       </c>
       <c r="E3" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="6">
         <v>14</v>
@@ -1152,7 +1156,7 @@
         <v>2002</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" s="6">
         <v>100</v>
@@ -1167,7 +1171,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1175,7 +1179,7 @@
         <v>2003</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" s="6">
         <v>100</v>
@@ -1184,13 +1188,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H5" s="6">
         <v>14</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1198,7 +1202,7 @@
         <v>2004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" s="6">
         <v>100</v>
@@ -1213,7 +1217,7 @@
         <v>14</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1221,7 +1225,7 @@
         <v>2005</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" s="9">
         <v>100</v>
@@ -1236,7 +1240,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1244,7 +1248,7 @@
         <v>2006</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="6">
         <v>100</v>
@@ -1264,7 +1268,7 @@
         <v>2007</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9" s="6">
         <v>100</v>
@@ -1273,13 +1277,13 @@
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H9" s="6">
         <v>14</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1287,7 +1291,7 @@
         <v>2008</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" s="10">
         <v>100</v>
@@ -1302,7 +1306,7 @@
         <v>14</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1310,7 +1314,7 @@
         <v>2009</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11" s="10">
         <v>100</v>
@@ -1325,7 +1329,7 @@
         <v>14</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1333,7 +1337,7 @@
         <v>2010</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12" s="6">
         <v>100</v>
@@ -1345,7 +1349,7 @@
         <v>14</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1353,7 +1357,7 @@
         <v>2011</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13" s="6">
         <v>100</v>
@@ -1362,13 +1366,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H13" s="6">
         <v>14</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1376,7 +1380,7 @@
         <v>2012</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14" s="6">
         <v>100</v>
@@ -1391,7 +1395,7 @@
         <v>15</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1399,7 +1403,7 @@
         <v>2013</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15" s="6">
         <v>100</v>
@@ -1414,7 +1418,7 @@
         <v>15</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1422,7 +1426,7 @@
         <v>2014</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D16" s="6">
         <v>100</v>
@@ -1437,7 +1441,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1445,7 +1449,7 @@
         <v>2015</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="13">
@@ -1460,7 +1464,7 @@
         <v>14</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1486,87 +1490,87 @@
   <sheetData>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3253,7 +3257,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -3277,7 +3281,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -3613,7 +3617,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
